--- a/Reviewer_Comments_29-Dec-2024.xlsx
+++ b/Reviewer_Comments_29-Dec-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\Publications\Article_Empirical_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3912F31E-5544-4883-A468-B653A126E8A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04E33D1-2ABF-4E21-8061-F33939347DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="414" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3185,19 +3185,95 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
+      <t>.
+Using an exploratory research approach to arrive at a hypothesis -- \cite{Politzer2021}.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Mention that </t>
+    </r>
+    <r>
+      <rPr>
         <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Using an exploratory research approach to arrive at a hypothesis</t>
+      <t>noise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -as  suggested in "4.3. How Do We Account for Noise' - Eimer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adding noise and chance of break-down: Study of noise in RL settings is of prime importance, as suggested by} \cite</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{Eimer2023AutoRL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}.</t>
     </r>
   </si>
 </sst>
@@ -7195,10 +7271,10 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7268,7 +7344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="182" t="s">
         <v>25</v>
       </c>
